--- a/March 2018/Saturday-Sunday-Weekday/Validation/Valid_SatModel_March.xlsx
+++ b/March 2018/Saturday-Sunday-Weekday/Validation/Valid_SatModel_March.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\March 2018\Saturday-Sunday-Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB5E3B5C-E9FA-4256-A454-79E8F7F47DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{350F34FD-859A-4C4A-AB85-E34B9073023F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{492A9C14-62C0-4FBE-AD6C-AEED86B47094}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{A876943C-0E98-486F-ABF8-28DAE2A346FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="19" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAD22EE-00AD-4863-9AD1-EE0D6D7F96D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325083F0-7F6F-4E87-B9F8-974EFDC062EC}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1521,53 +1521,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{83363C78-9097-4EA8-85E4-1C5DF01BA04D}"/>
-    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{29579E4E-64B2-4CA4-8ABA-6A2CA39E22A5}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{67A855CC-229C-4C18-9783-F9770D0CC7A6}"/>
-    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{A19F8861-2EA7-4497-9EEA-2CF6959B6502}"/>
-    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{13B2DD11-82D9-421E-8883-72303388527D}"/>
-    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{0E1B002C-DA52-4174-A91E-B162292E10BF}"/>
-    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{F248FCA5-8EF6-448D-AB45-511FC5E4BF10}"/>
-    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{9AFA6E62-9EB0-4794-AAB5-1DBBF8E1A742}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{788BD50A-6C1E-4FB0-BBDC-7E0714D4104C}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{D543AF97-3C3A-49A0-88FB-E0CFAA8B65E7}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{0322A8E9-4743-4958-8743-C83FCC61296E}"/>
-    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{F3A535C4-6208-46D5-836C-18969493165B}"/>
-    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{4948C0B2-F27D-4406-A6CF-32D399F8C6B6}"/>
-    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{966A25AC-52C2-4F84-A594-1A04A777D1E9}"/>
-    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{E463D32C-2945-4D87-AA8F-0667B9F46836}"/>
-    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{75E9FD29-C72A-4ED2-9ECB-406BA435FD31}"/>
-    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{C7CC46CA-6294-4A25-922B-46A6D4AFED63}"/>
-    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{103C7674-61DE-459D-ABD1-BFA2AB35B6B0}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{048F8517-241F-4474-8691-DBD0D44F4E3E}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{52ADB8B3-FF83-4E4E-AA1C-9C7C74455A1C}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{8BB62DC4-0ED1-4388-820A-B4BB436CB7B1}"/>
-    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{DE3AECDB-50BB-4BC5-943F-A28DC165E415}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{0D83B85C-EED4-4E68-AA43-12E6AE7DCA4B}"/>
-    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{62ECEADA-F68B-49D4-9336-DAF4A7A66CBE}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{8CFC5BD8-7B25-4226-8E69-7F13DDD34385}"/>
-    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{E9FA8EA3-0939-4383-A8B5-65066A15CB4A}"/>
-    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{4EE99784-BAD2-42DC-9B6B-33A9D0481BB2}"/>
-    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{821827C0-F3A0-4A8F-9154-EB77F315EF25}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{D3F0785D-3660-4B98-80E1-186051FF6ABE}"/>
-    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{FEDFF706-2EC2-488B-BD48-C2F0C440B7FF}"/>
-    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{4A939E4D-7712-4ADA-9B8A-0895270433F7}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{8E2274FF-30B3-4317-90C9-6724B615D0DF}"/>
-    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{98BE1A3E-501A-4781-B42D-012B2A6D86AF}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{4946E48E-7C96-473E-B5FF-3A999C068828}"/>
-    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{DEFC81E7-5B1C-45C1-A59B-314E709B3285}"/>
-    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{3C5FE3F6-E896-47DE-9F89-EDA2088F3B6C}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{49273B71-7C4D-48C4-93E7-85365839A475}"/>
-    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{A8131195-E746-4C89-A002-E5F16BFD9316}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{D5EEBE63-CD91-471F-BE0F-9EF8367D277D}"/>
-    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{568E20B4-1A77-44B5-A616-AA6B4D84E962}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{EA51B5E7-2CB9-4C7F-BA48-37856E20B3D5}"/>
+    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{5DE00C58-CD68-4BFA-9589-D672996C5623}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{AAA72649-B807-4977-9049-77BB89774A25}"/>
+    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{47388F95-3675-4DCE-9A9F-D6C77A3BF1C3}"/>
+    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{E8104042-3E77-4A4D-9CB7-67979F9D5967}"/>
+    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{C99C5EE3-AD7E-4F78-892F-8E2DD2BD7759}"/>
+    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{290987B1-780A-4D81-B649-7D61F582FAB2}"/>
+    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{8B8195EF-EF30-48B6-8A0C-CF08C315B513}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{E6DC7263-5706-40E4-95A6-70D06BD944D8}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{EA291430-4C4C-4B5D-9358-59594C4BD74C}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{9FFE3C09-5AEA-4E94-AA24-4497E52E6907}"/>
+    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{A421C87B-9986-4A4A-B36D-5056560A9A42}"/>
+    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{CAB67323-9467-4C56-85F3-9A8D11591A15}"/>
+    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{808AE1FF-5315-4CAD-A89D-99442D74FA90}"/>
+    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{ECE729C2-01CB-423A-9EA6-F4538414BFA5}"/>
+    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{BC9D1EC8-2A19-4033-A0CC-A7B699CB49ED}"/>
+    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{70797D16-5233-48D1-BD8B-7567CA320A4E}"/>
+    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{540D597E-9662-4393-B5CD-118FAB055E5A}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{A13E1300-35C7-4374-9D36-D80546D62DC1}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{7FE9F907-8B4D-453D-B96A-5ACFA954D538}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{84245EFE-205B-44F3-A005-1BC2AE41F661}"/>
+    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{7805C1C5-A140-4B1C-8C41-C809E7F0812B}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{647A85BC-0DDE-4B1E-ABAA-7F7BF05C656E}"/>
+    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{310F131A-B299-414A-A723-EEDEBD6C67A4}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{1E0753CF-828F-4D2E-BD41-69AF3277198C}"/>
+    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{21953B28-B267-4CAC-9021-856B69B79020}"/>
+    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{20DDE32A-9F4B-4B59-ABD9-D3DADB124A34}"/>
+    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{BAA683E7-7B3B-454A-9AE2-76FA2CB849B1}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{3A762D32-7374-4D97-9852-A45015D2272A}"/>
+    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{14030603-C301-45B9-B8BA-AF7A0F17C98F}"/>
+    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{1EE2FAB5-6F8E-43FF-8551-DC3ACF778DD1}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{AA5C7287-4B5E-43D1-A983-D0C0FF1569D7}"/>
+    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{FDF4B641-BCD3-4578-971B-80AF86DC9939}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{9E231B10-4A80-43DB-9898-A8E14B6425F2}"/>
+    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{E544F28C-209A-4354-8B4E-937297C6E44D}"/>
+    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{44F78191-CD6B-4372-A656-CC3C4FEC0B37}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{36830E84-95F7-4E20-9093-777D5A0E2FF7}"/>
+    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{28404D82-865D-43B4-8151-1DF743C82715}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{C7413AC2-68B9-4E7B-AD22-785D7CA4EDFC}"/>
+    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{38C6C208-A5D4-480A-B061-937D482FD8E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7CEC60-4B9A-48A7-B95B-0E949C5A6072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75C4374-2E88-4889-BD25-D98D8F10FEFE}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1662,16 +1662,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{7E9EF96B-E731-4A9D-9F8E-6E4824F3A061}"/>
+  <autoFilter ref="A3:E6" xr:uid="{50159EEF-9902-441D-8B10-436D6B5B535E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{73F0A2EF-FD0D-4353-BE5F-A3D061DA171C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6606447F-7050-4BE4-89ED-0B97513E2662}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DB29BA-7F89-4D78-AD9C-8AF68FC2C3FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F17EF7-0654-4F72-A6DA-9B3F1E478F01}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1766,16 +1766,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{B90CC709-BBE7-4BE8-8054-4B5CD404B0CD}"/>
+  <autoFilter ref="A3:E6" xr:uid="{777C24DE-E496-43FF-8F70-ABA004640546}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7228A675-8258-493C-85C3-59BA5347E715}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BDE66E2B-D6D4-4C44-8C0F-50F5AE498277}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2008C-DEA8-43C4-9C03-764F0955CB68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E55F730-3556-4CF6-87A8-668B9A363B1A}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1942,16 +1942,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{2A65AA88-B77B-4438-AA76-8CFD890E9D20}"/>
+  <autoFilter ref="A3:F9" xr:uid="{ACC803F4-7BCB-4AFF-998C-74A7C143DCDF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2E1618E9-0575-44F6-ACDA-60D4479935DC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FA58807E-4504-46E2-8668-538930D9B903}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A146D0-8EF9-49A7-8DEC-95C5215EDD84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434826E8-81C2-4EF8-A09D-204BFF3039B8}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2002,16 +2002,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{31C5AB3F-52AA-4321-867D-BEC9100C0CB2}"/>
+  <autoFilter ref="A3:B5" xr:uid="{1F327F3B-3BA7-422E-9C25-3829CFE25898}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1746514F-C5DE-4E46-A7F9-FDBF8CDEB0CC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7DCDFB81-F20C-48E0-834E-7C9A5EBE4549}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EB6953-0F6A-403A-A9C3-C533F241A645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1226426C-049F-41DA-9E46-06F7A96328E2}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2059,16 +2059,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{3ADB996B-644B-4E49-82E6-5AE4B3255612}"/>
+  <autoFilter ref="A3:A5" xr:uid="{E984E8FE-D828-4482-AA87-BA60500C72E6}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{838CE17F-B9DA-49E0-A8D7-25E476AB45B9}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F16DCCEA-9CFA-48B5-B3B8-C3B7C6560378}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA32D09C-3AFF-4422-A598-3F328CEF6C1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D59D3B-D13A-4278-9489-7816F2244F5C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2127,16 +2127,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B6" xr:uid="{81028B4A-CD1F-4751-85D7-D2A6A52485B8}"/>
+  <autoFilter ref="A3:B6" xr:uid="{400901C8-6D70-4C46-8FB8-2FCF52EA473F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F6C0B0A1-332D-4070-903A-4E8868730AA2}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{24CB21A8-8E39-4B68-A3AB-3497F1EB6BD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74138126-49AA-4B2C-B4BC-712EBC4D6E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AF61D0-F67E-43B0-BB72-F201C5F2EA63}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2240,16 +2240,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{E11813E1-0A7E-45D1-9C63-BC85EABAC955}"/>
+  <autoFilter ref="A3:C9" xr:uid="{D5096394-E7BC-4B26-87D1-FEFF6A578423}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4276AF92-C176-47CE-BBD5-D0BB359F8341}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{63E67302-F9D2-41EB-950F-27C171947B6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D74E54C-78C4-48FA-8CA7-360FC2DF3842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0D81A0-D9D1-4472-8D3B-C1660B37EC5F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2297,16 +2297,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{99F2EFEE-7689-4A0A-B06D-2CC39A1817EB}"/>
+  <autoFilter ref="A3:A5" xr:uid="{3F8CD495-A3A3-4DF7-8FA6-C9C57B8A0C5D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{23BAE554-4C66-4C12-8307-43DA61031446}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{ABB72192-49DB-46D3-BC2E-EDBCD784A058}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E351C9F1-0BAC-4CE7-A90E-F17FA5821E01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F431A119-59CB-4E16-BA3D-69CE21EDA111}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2410,16 +2410,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{DFA1FF10-34D8-45BB-BF60-80EFCA40F84F}"/>
+  <autoFilter ref="A3:C9" xr:uid="{9A89B1F7-F527-4DCD-8738-C33970424BD4}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C4923E4E-C714-4CAF-934D-16EFFF1E671B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D0F4B6EE-4B72-432E-A9FF-399C8C37F37F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A02EF-B350-4428-A1E3-80BF7C526991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD25AAB1-643B-40B6-BF38-AAF70E21E4E1}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2523,16 +2523,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{AB1EBF55-280A-4EFC-A87C-FABE72CCCF13}"/>
+  <autoFilter ref="A3:C9" xr:uid="{10CEBA95-F0C0-4511-8B18-425D81952732}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{618A7E8E-C299-4CAD-AFC8-18DCA42E6AD9}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0A332744-20A9-464A-BAD8-ACBA6ABEB84A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831703F8-5BF8-464E-863A-47FFB1AB99A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331B06D3-9291-48E4-8090-53E3896BD8BA}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>17381566.867351122</v>
+        <v>19787570.503167119</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -2922,14 +2922,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E6B7C07D-02D8-4E8F-BCA6-7BD892B95331}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5327A75B-2DB8-4550-A6D2-CC83A469768F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4393BB4F-AD87-46FA-BEC5-0F6553F97F50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5955CE-8A5A-429C-BFBA-5D348F14380F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2976,16 +2976,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A6" xr:uid="{EF3F4852-ECA1-4B80-9118-81B05319954D}"/>
+  <autoFilter ref="A3:A6" xr:uid="{71A1F4A6-CE4A-4A3C-9FC8-08671DD94983}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{72423CBC-3FB2-42FF-BC03-99408391133F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C454A701-05AB-4CCD-A900-F7EE2D60BD17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1583E9-CBCF-4DFC-8DF5-B9EE5FA413DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFC9597-F43F-4CE7-8543-83BDFB95A8FE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3036,16 +3036,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{0A71964D-B233-4D34-9EF3-851445D6DB40}"/>
+  <autoFilter ref="A3:B5" xr:uid="{665977CC-F6D8-4533-84CD-79CE5477DA48}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DB8D051F-3DA9-4692-BDB8-2E8E0DA856F1}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BB645B24-8571-4A96-9DBA-4D517996697D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA605880-93E8-455B-8AC6-EED0CBFE21CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F672196-0B45-4630-A626-34440554521A}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3101,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>58.64</v>
+        <v>44.37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3145,20 +3145,20 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>44.37</v>
+        <v>58.64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{B9B55B29-1C87-49FA-A3EF-EB1D84BB1795}"/>
+  <autoFilter ref="A3:C9" xr:uid="{346D3D55-1A83-4556-B94D-41067F5E6DEF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DC728B99-7F3D-47F8-996D-987DC463790C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F0F6B5DC-ED92-4C72-B0C0-94FA5CA19ED0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3464F6C1-21E7-43E5-AE07-23EBE78BEB63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BCBB9F-F54F-4EAA-9928-DDDA7F8D537B}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>234.56</v>
+        <v>177.48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3321,20 +3321,20 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>976.14</v>
+        <v>1290.08</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{1AE2B291-A6F1-471E-884A-90B78ED4A5B8}"/>
+  <autoFilter ref="A3:F9" xr:uid="{2783ED87-0E5A-4C65-8BA7-0B8BB621050E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{380E032B-6DE9-4FA3-B88A-F6A5185DEC50}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9AD8003C-060F-421F-B0EE-35B4DF968AFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01986776-4B3B-48F4-8BE2-C0274A9FB32A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90CDFF1-300F-49F8-A94E-DCCA122EB5D6}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3417,7 +3417,7 @@
         <v>12756.48</v>
       </c>
       <c r="F5">
-        <v>139.42246400000002</v>
+        <v>105.494112</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3497,20 +3497,20 @@
         <v>15212.86</v>
       </c>
       <c r="F9">
-        <v>580.21761600000002</v>
+        <v>766.82355200000006</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{C1FA7335-9474-4F1F-A087-440D04A69471}"/>
+  <autoFilter ref="A3:F9" xr:uid="{C82D375D-EADA-4629-891C-3D04686E20F6}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F34F7B2A-9F0F-4B93-8A3A-29CB92BBADE1}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{429486F6-3C05-4E0E-BB86-8F6F55A2AC50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7C00EF-19A7-441D-B2CB-CEA8D0F8F42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80586759-3D76-4EFC-826E-CAA2E98EE5B4}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3677,16 +3677,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{9CEF0EE3-B89F-4B02-B11A-8E5428869BDA}"/>
+  <autoFilter ref="A3:F9" xr:uid="{6CC862EF-ADCC-4300-9341-598556B5247D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B7D475F7-413B-490D-8334-20BDA923F084}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{31468CE1-8F11-4FC7-90B9-D3F649668041}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E10B424-C177-4A40-943F-ADA798D46039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46C4D0B-D044-48E2-8B24-496AE709B4CA}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3853,9 +3853,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{D9E3BB62-4FFE-4B53-BA86-4A67671B2634}"/>
+  <autoFilter ref="A3:F9" xr:uid="{DA6BC5F6-CC91-4631-94B1-B762192B6EA0}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A4547D2D-47AA-42EE-BCC8-062D0D16E1CB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7BF004EC-2FE1-4D98-9638-B9C02873359E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
